--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>TestID</t>
   </si>
@@ -188,16 +190,81 @@
   </si>
   <si>
     <t>Reseller</t>
+  </si>
+  <si>
+    <t>sonali chand</t>
+  </si>
+  <si>
+    <t>sam156@gmail.com</t>
+  </si>
+  <si>
+    <t>1RK</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>odisha</t>
+  </si>
+  <si>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>car parking</t>
+  </si>
+  <si>
+    <t>dfuojk</t>
+  </si>
+  <si>
+    <t>opp temple</t>
+  </si>
+  <si>
+    <t>gandhi nagar</t>
+  </si>
+  <si>
+    <t>Vacant</t>
+  </si>
+  <si>
+    <t>Occupied</t>
+  </si>
+  <si>
+    <t>sonu monu</t>
+  </si>
+  <si>
+    <t>blooff</t>
+  </si>
+  <si>
+    <t>sonu233@gmail.com</t>
+  </si>
+  <si>
+    <t>Banaras</t>
+  </si>
+  <si>
+    <t>appu</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>sunny123@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,17 +293,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -295,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -330,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -507,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +597,10 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -578,7 +648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -586,7 +656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -594,7 +664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -602,7 +672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -610,7 +680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -618,7 +688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -626,7 +696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -634,7 +704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -642,27 +712,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>30</v>
       </c>
@@ -755,15 +825,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -809,7 +879,172 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8900776645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5468309857</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5463845069</v>
+      </c>
+      <c r="E3">
+        <v>9906777823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="2568" yWindow="2256" windowWidth="12936" windowHeight="2640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="owner" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>TestID</t>
   </si>
@@ -247,17 +248,135 @@
   </si>
   <si>
     <t>sunny123@gmail.com</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MobileNum</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AltMobNumber</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Plotnum</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AvailableRooms</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sale</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Deposit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Landmark</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Vacant/Occupied</t>
+  </si>
+  <si>
+    <t>UpdatedDetail</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adithi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>adithi@gmail.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3bhk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Karnataka</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bagalkot</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Gym,Park,Swimmingpool</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>We are happy to help u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>near SBI bank</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Navanagar 3rd stage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Occupied</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>karthik@gmail.com</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,12 +384,32 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0C5460"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +442,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,19 +745,19 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="5" width="19.8984375" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -640,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -648,7 +805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -656,7 +813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -664,7 +821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -672,7 +829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -680,7 +837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -688,7 +845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -696,7 +853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -704,7 +861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -712,112 +869,113 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -831,15 +989,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -879,38 +1037,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8900776645</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
   </hyperlinks>
@@ -922,18 +1081,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="50.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -944,7 +1103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5468309857</v>
       </c>
@@ -955,7 +1114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5463845069</v>
       </c>
@@ -963,7 +1122,7 @@
         <v>9906777823</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -974,7 +1133,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>40</v>
       </c>
@@ -982,7 +1141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -990,61 +1149,198 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9632587412</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9512368742</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="6">
+        <v>420</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="6">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>150000</v>
+      </c>
+      <c r="L2" s="6">
+        <v>500000</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABBD60-2753-4005-8355-036B442AD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="apartmentregistration" sheetId="4" r:id="rId4"/>
+    <sheet name="individualhomeregistration" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
   <si>
     <t>TestID</t>
   </si>
@@ -247,12 +249,186 @@
   </si>
   <si>
     <t>sunny123@gmail.com</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>flatNumber</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>vaccantoroccupied</t>
+  </si>
+  <si>
+    <t>maharashtra</t>
+  </si>
+  <si>
+    <t>nasik</t>
+  </si>
+  <si>
+    <t>near po</t>
+  </si>
+  <si>
+    <t>hebbal</t>
+  </si>
+  <si>
+    <t>sidhi</t>
+  </si>
+  <si>
+    <t>2BHK</t>
+  </si>
+  <si>
+    <t>5*4</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Ground floor</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>abcdefgh</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Rented</t>
+  </si>
+  <si>
+    <t>occupied</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>TestId</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>alternateMobileNumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>plotNumber</t>
+  </si>
+  <si>
+    <t>availableRooms</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>landMark</t>
+  </si>
+  <si>
+    <t>vacantOrOccupied</t>
+  </si>
+  <si>
+    <t>shweta</t>
+  </si>
+  <si>
+    <t>shweta@gmail.com</t>
+  </si>
+  <si>
+    <t>3BHK</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>all facility</t>
+  </si>
+  <si>
+    <t>overall good</t>
+  </si>
+  <si>
+    <t>near SBI bank</t>
+  </si>
+  <si>
+    <t>Hyderabad, AP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,30 +753,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -640,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -648,7 +824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -656,7 +832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -664,7 +840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>20</v>
       </c>
@@ -672,7 +848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -680,7 +856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -688,7 +864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -696,7 +872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -704,7 +880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -712,107 +888,107 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>46</v>
       </c>
@@ -824,22 +1000,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -879,61 +1055,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8900776645</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -944,7 +1119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5468309857</v>
       </c>
@@ -955,7 +1130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5463845069</v>
       </c>
@@ -963,7 +1138,7 @@
         <v>9906777823</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -974,7 +1149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
@@ -982,7 +1157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -990,60 +1165,368 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEAC2B-826D-463A-8CC5-DD4BB08B4030}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2">
+        <v>8000</v>
+      </c>
+      <c r="O2">
+        <v>20000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C5E5A1-1B8D-4673-80BF-3127877113DB}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>8494808468</v>
+      </c>
+      <c r="E2">
+        <v>8494808498</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2">
+        <v>28000</v>
+      </c>
+      <c r="M2">
+        <v>25000</v>
+      </c>
+      <c r="N2">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{7F943E23-6EE6-4B70-AE75-A32BD72D578B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
